--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benko\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399409B9-5C7C-443A-9854-114B223852B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,47 +27,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">&lt;Your Team's Project Name&gt;</t>
+    <t>Project User Stories and Functional Requirements</t>
+  </si>
+  <si>
+    <t>Author(s)</t>
+  </si>
+  <si>
+    <t>Planning Poker Ratings for Story</t>
+  </si>
+  <si>
+    <t>Functional Components and Features of the Story</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">List Team Members Here: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Mireya Millano, Joe Jones, Kabine Kisoso, etc.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Project User Stories and Functional Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning Poker Ratings for Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Components and Features of the Story</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -77,16 +56,15 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri (Body)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Hi -&gt; More Interest)</t>
+      <t>(Hi -&gt; More Interest)</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -101,51 +79,53 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri (Body)"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Hi -&gt; More Difficult)</t>
+      <t>(Hi -&gt; More Difficult)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Must Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Won't Have</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualities you want your stories to have…..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelby Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Pugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Kownacki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesse Munoz</t>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t>Could Have</t>
+  </si>
+  <si>
+    <t>Won't Have</t>
+  </si>
+  <si>
+    <t>Qualities you want your stories to have…..</t>
+  </si>
+  <si>
+    <t>Shelby Jordan</t>
+  </si>
+  <si>
+    <t>David Kim</t>
+  </si>
+  <si>
+    <t>Sam Pugh</t>
+  </si>
+  <si>
+    <t>Ben Kownacki</t>
+  </si>
+  <si>
+    <t>Jesse Munoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Big Huge Parking For To Make the Transport Of Self To and From The Classes And Parking Lots To For The Making Of Facilitation To Make Easy and Fun. Very Good. </t>
+  </si>
+  <si>
+    <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,22 +134,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -177,14 +142,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -192,7 +150,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -203,7 +161,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -289,14 +246,14 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF1F4E79"/>
       </left>
@@ -311,7 +268,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FF1F4E79"/>
       </left>
@@ -326,14 +283,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF1F4E79"/>
       </left>
@@ -346,172 +307,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -570,98 +510,406 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F4E79"/>
       <rgbColor rgb="FF262626"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="49.34"/>
+    <col min="1" max="1" width="41.36328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="49.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="55.5">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="38.5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" s="10" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -670,8 +918,8 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -680,10 +928,10 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -692,8 +940,8 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -702,10 +950,10 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -714,8 +962,8 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -724,10 +972,10 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -736,8 +984,8 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -746,10 +994,10 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -758,8 +1006,8 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -768,27 +1016,20 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benko\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399409B9-5C7C-443A-9854-114B223852B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDA1A5-2C2D-5B4C-9302-3EEF1065D73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
+  </si>
+  <si>
+    <t>I,   I as a simplistic style user, want to utilize some buttons on the webpage instead of text input to aid in the simplicity of the webpage.</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have the ability to identify my best parking option by color.</t>
+  </si>
+  <si>
+    <t>Not Here 10-10-2019</t>
+  </si>
+  <si>
+    <t>As a user looking to be able to tell apart parking garages, I would like the garages to have polygons over them where their color indicates who is allowed to park there.</t>
   </si>
 </sst>
 </file>
@@ -391,24 +403,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -445,6 +439,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,203 +843,211 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="49.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="55.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="38.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="12" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="43">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="16" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="37" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="16" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="56" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="16" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" ht="16">
+      <c r="A12" s="16"/>
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDA1A5-2C2D-5B4C-9302-3EEF1065D73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15494DA9-CD66-8C44-AE06-9BB67D29FFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -121,16 +121,24 @@
     <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
   </si>
   <si>
-    <t>I,   I as a simplistic style user, want to utilize some buttons on the webpage instead of text input to aid in the simplicity of the webpage.</t>
-  </si>
-  <si>
-    <t>As a user, I would like to have the ability to identify my best parking option by color.</t>
-  </si>
-  <si>
     <t>Not Here 10-10-2019</t>
   </si>
   <si>
-    <t>As a user looking to be able to tell apart parking garages, I would like the garages to have polygons over them where their color indicates who is allowed to park there.</t>
+    <t xml:space="preserve"> I as a simplistic style user, want to utilize some buttons on the webpage instead of text input to aid in the simplicity of the webpage.
+As a Student, I would like to know better paths to campus from these parking lots to make commuting between them easier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user i would like an option to tell if there is motorcycle parking available.
+As a user i would like to be able to tell if the parking garage is full before driving to the garage.
+</t>
+  </si>
+  <si>
+    <t>As a user looking to be able to tell apart parking garages, I would like the garages to have polygons over them where their color indicates who is allowed to park there.
+As a person looking for functionality, I would like to be able to get directions from one point to another so the website is useful.</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have the ability to identify my best parking option by color. 
+As a meat-popsicle, I would like the ability to use my multipass to access red-zone parking.</t>
   </si>
 </sst>
 </file>
@@ -843,7 +851,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -893,7 +901,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="43">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="6" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
@@ -918,9 +926,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16">
+    <row r="4" spans="1:10" ht="66" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -932,7 +940,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="98" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -944,7 +952,7 @@
     </row>
     <row r="6" spans="1:10" ht="16">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -966,9 +974,9 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="37" customHeight="1">
+    <row r="8" spans="1:10" ht="95" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -980,7 +988,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="58" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -990,7 +998,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:10" ht="56" customHeight="1">
+    <row r="10" spans="1:10" ht="109" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1012,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="62" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1014,8 +1022,10 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="16">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:10" ht="57" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1036,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="60" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15494DA9-CD66-8C44-AE06-9BB67D29FFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E49CD-C90D-F740-A242-201A18BD760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>As a user, I would like to have the ability to identify my best parking option by color. 
 As a meat-popsicle, I would like the ability to use my multipass to access red-zone parking.</t>
+  </si>
+  <si>
+    <t>N-A</t>
   </si>
 </sst>
 </file>
@@ -883,7 +886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -901,7 +904,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="6" customHeight="1">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
@@ -933,8 +936,12 @@
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="11">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11">
+        <v>13</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -943,8 +950,12 @@
     <row r="5" spans="1:10" ht="98" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -981,8 +992,12 @@
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="11">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11">
+        <v>34</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -991,8 +1006,12 @@
     <row r="9" spans="1:10" ht="58" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="14">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14">
+        <v>34</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1005,8 +1024,12 @@
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11">
+        <v>89</v>
+      </c>
+      <c r="D10" s="11">
+        <v>34</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1015,8 +1038,12 @@
     <row r="11" spans="1:10" ht="62" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="14">
+        <v>55</v>
+      </c>
+      <c r="D11" s="14">
+        <v>55</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1029,8 +1056,12 @@
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11">
+        <v>89</v>
+      </c>
+      <c r="D12" s="11">
+        <v>13</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1039,8 +1070,12 @@
     <row r="13" spans="1:10" ht="60" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14">
+        <v>89</v>
+      </c>
+      <c r="D13" s="14">
+        <v>55</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E49CD-C90D-F740-A242-201A18BD760D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C930E-7986-B041-8D3B-D59C3782CDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -142,6 +142,11 @@
   </si>
   <si>
     <t>N-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awell Thught out Color Scheme to draw the user's eye to the correct location on the map
+Clickable map icons that will in turn create a submenu of options per the users choice.
+</t>
   </si>
 </sst>
 </file>
@@ -451,23 +456,23 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,7 +859,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -871,42 +876,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -929,8 +934,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" ht="207" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -942,13 +947,15 @@
       <c r="D4" s="11">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="98" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>23</v>
@@ -962,7 +969,7 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -976,7 +983,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -986,7 +993,7 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="95" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1004,7 +1011,7 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="58" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14">
         <v>34</v>
@@ -1018,7 +1025,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="109" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1036,7 +1043,7 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="62" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14">
         <v>55</v>
@@ -1050,7 +1057,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1068,7 +1075,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14">
         <v>89</v>
@@ -1083,16 +1090,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C930E-7986-B041-8D3B-D59C3782CDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538755B-AF0E-9140-B779-6D1792E7D2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -144,9 +144,61 @@
     <t>N-A</t>
   </si>
   <si>
-    <t xml:space="preserve">Awell Thught out Color Scheme to draw the user's eye to the correct location on the map
-Clickable map icons that will in turn create a submenu of options per the users choice.
+    <t>A well Thught out Color Scheme to draw the user's eye to the correct location on the map
+Clickable map icons that will in turn create a submenu of options per the users choice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive With the google maps API and interpretted by JS controller.
+Relevent links being displayed depedning on which box or button is clicked. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iunteractivity Components and prompts to ensure click was intended before being processed. 
+Checks in the code to verifiy user input is correct. Avoid junk processing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any data visible to the user that could confuse them.
+Processing data showing up on the web page while processing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A well built mapping system with easy to understand user interpretation.
+Input based off of the location one has clicked on the parking map.  
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear directions and maps based on latest campus layout and orientation. 
+Layouts that are to be updated based on Construction projects or other factors in a timely maner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cookie based system to help users remmember previous paths taken around campus. 
+Tie into the open street maps api to draw data from their pre built paths. </t>
+  </si>
+  <si>
+    <t>Direct people along streets without sidewalks or safe walking areas.
+Features above the minimum of what is needed to get someone from point A to point B. (Eg. Food locations, drug stores etc...)</t>
+  </si>
+  <si>
+    <t>Clearly identified areas to park and colors that most people are not colorblind to.</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Customizable colors</t>
+  </si>
+  <si>
+    <t>The ability for a user to create a new area to park.</t>
+  </si>
+  <si>
+    <t>Interface with google api and action listeners.</t>
+  </si>
+  <si>
+    <t>A unmutable list.</t>
+  </si>
+  <si>
+    <t>Color coded list to indicate which times are more crowded with people than others.</t>
+  </si>
+  <si>
+    <t>The ability to send that list to email, facebook, or other media sharing sites.</t>
   </si>
 </sst>
 </file>
@@ -456,6 +508,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -876,42 +928,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -934,8 +986,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="207" customHeight="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" ht="123" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -948,14 +1000,20 @@
         <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="98" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>23</v>
@@ -963,13 +1021,21 @@
       <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -983,7 +1049,7 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -992,8 +1058,8 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:10" ht="95" customHeight="1">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:10" ht="189" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1005,13 +1071,21 @@
       <c r="D8" s="11">
         <v>34</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="58" customHeight="1">
-      <c r="A9" s="21"/>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="200" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14">
         <v>34</v>
@@ -1019,13 +1093,21 @@
       <c r="D9" s="14">
         <v>34</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="109" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1043,7 +1125,7 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="62" customHeight="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14">
         <v>55</v>
@@ -1057,7 +1139,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1075,7 +1157,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14">
         <v>89</v>
@@ -1090,16 +1172,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538755B-AF0E-9140-B779-6D1792E7D2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E9343-5ECE-6948-B361-33107E1EBEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15500" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,28 +177,36 @@
 Features above the minimum of what is needed to get someone from point A to point B. (Eg. Food locations, drug stores etc...)</t>
   </si>
   <si>
-    <t>Clearly identified areas to park and colors that most people are not colorblind to.</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Customizable colors</t>
-  </si>
-  <si>
-    <t>The ability for a user to create a new area to park.</t>
-  </si>
-  <si>
-    <t>Interface with google api and action listeners.</t>
-  </si>
-  <si>
-    <t>A unmutable list.</t>
-  </si>
-  <si>
-    <t>Color coded list to indicate which times are more crowded with people than others.</t>
-  </si>
-  <si>
-    <t>The ability to send that list to email, facebook, or other media sharing sites.</t>
+    <t xml:space="preserve">(1) Clearly identified areas to park. 
+(2) Colors that most people are not colorblind to. </t>
+  </si>
+  <si>
+    <t>(1) Legend
+ (2) A contact us option.</t>
+  </si>
+  <si>
+    <t>(1) Customizable colors. 
+(2) The ability for users to update the accuracy of the predictions.</t>
+  </si>
+  <si>
+    <t>(1) The ability for a user to create a new area to park. 
+(2) The ability for users to make new walking paths.</t>
+  </si>
+  <si>
+    <t>(1) Interface with google api. 
+(2) Invisible interface on the map that has action listeners.</t>
+  </si>
+  <si>
+    <t>(1) A unmutable list. 
+(2) The mouse should change from a pointer to a hand.</t>
+  </si>
+  <si>
+    <t>(1) Color coded list to indicate which times are more crowded with people than others.
+ (2) Traffic indicators near parking areas.</t>
+  </si>
+  <si>
+    <t>(1) The ability to send that list to email, facebook, or other media sharing sites. 
+(2) The ablilty to change any output.</t>
   </si>
 </sst>
 </file>
@@ -496,35 +504,35 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -928,42 +936,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -986,8 +994,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="123" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" ht="103" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -999,43 +1007,43 @@
       <c r="D4" s="11">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="98" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:10" ht="183" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1043,23 +1051,23 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1071,43 +1079,43 @@
       <c r="D8" s="11">
         <v>34</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="200" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14">
+      <c r="A9" s="19"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
         <v>34</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>34</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="109" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1119,27 +1127,27 @@
       <c r="D10" s="11">
         <v>34</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="62" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
         <v>55</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>55</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1151,37 +1159,37 @@
       <c r="D12" s="11">
         <v>13</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13">
         <v>89</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>55</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E9343-5ECE-6948-B361-33107E1EBEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DF95C-D14F-441F-AE57-39286415A551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15500" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -207,6 +207,30 @@
   <si>
     <t>(1) The ability to send that list to email, facebook, or other media sharing sites. 
 (2) The ablilty to change any output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way to show if there is any parking available.            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way to show if there is any parking available.       </t>
+  </si>
+  <si>
+    <t>A way to tell how many spots are left exactly so that you don’t see that its empty when in reality there is only one spot that could be taken right away.</t>
+  </si>
+  <si>
+    <t>A way to reserve a parking spot.</t>
+  </si>
+  <si>
+    <t>Way to show if there is motor cycle parking availabe.</t>
+  </si>
+  <si>
+    <t>This option should be seen for all garages and parking lots.</t>
+  </si>
+  <si>
+    <t>A little motorcycle icon showing that the garage has parking.</t>
+  </si>
+  <si>
+    <t>A detailed outline of garage and where the parking is located.</t>
   </si>
 </sst>
 </file>
@@ -510,6 +534,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,15 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,60 +942,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="54">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.05" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.05" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -994,8 +1018,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="103" customHeight="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:10" ht="103.05" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1007,21 +1031,21 @@
       <c r="D4" s="11">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
         <v>23</v>
@@ -1029,21 +1053,21 @@
       <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1051,23 +1075,23 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1079,21 +1103,21 @@
       <c r="D8" s="11">
         <v>34</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="200" customHeight="1">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:10" ht="199.95" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13">
         <v>34</v>
@@ -1101,21 +1125,21 @@
       <c r="D9" s="13">
         <v>34</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="109" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:10" ht="109.05" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1127,13 +1151,13 @@
       <c r="D10" s="11">
         <v>34</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="62" customHeight="1">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:10" ht="61.95" customHeight="1">
+      <c r="A11" s="16"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13">
         <v>55</v>
@@ -1141,13 +1165,13 @@
       <c r="D11" s="13">
         <v>55</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1159,13 +1183,21 @@
       <c r="D12" s="11">
         <v>13</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:10" ht="147.6" customHeight="1">
+      <c r="A13" s="16"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13">
         <v>89</v>
@@ -1173,23 +1205,31 @@
       <c r="D13" s="13">
         <v>55</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DF95C-D14F-441F-AE57-39286415A551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E50E0-797B-4639-91C6-5BB4B0D323A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,28 +209,28 @@
 (2) The ablilty to change any output.</t>
   </si>
   <si>
-    <t xml:space="preserve">Way to show if there is any parking available.            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Way to show if there is any parking available.       </t>
-  </si>
-  <si>
-    <t>A way to tell how many spots are left exactly so that you don’t see that its empty when in reality there is only one spot that could be taken right away.</t>
-  </si>
-  <si>
-    <t>A way to reserve a parking spot.</t>
-  </si>
-  <si>
-    <t>Way to show if there is motor cycle parking availabe.</t>
-  </si>
-  <si>
-    <t>This option should be seen for all garages and parking lots.</t>
-  </si>
-  <si>
-    <t>A little motorcycle icon showing that the garage has parking.</t>
-  </si>
-  <si>
-    <t>A detailed outline of garage and where the parking is located.</t>
+    <t>1) Way to show if there is motor cycle parking availabe.                                                                                                                                                                                                                                                                                               2) Must be shown for all garages and parking lots.</t>
+  </si>
+  <si>
+    <t>1) Something that will stand out to see there is motorcycle parking available.                                                                                                                                                                                                                                                         2) The number of spots in that garage or lot dedicated to motorcyles.</t>
+  </si>
+  <si>
+    <t>1) A little motorcycle icon showing that the garage has parking for motorcycles.                                                                                                                                                                                                                                                   2) A way to track the number of spots for motorcycles available vs just cars.</t>
+  </si>
+  <si>
+    <t>1) A detailed outline of garage and where the parking is located.                                                                                                                                                                                                                                                                                2) A way to reserve spots for motorcycles.</t>
+  </si>
+  <si>
+    <t>1) Way to show if there is any parking available.                                                                                                                                                                                                                                                                                                             2) Way to track cars going in and out of garage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Data to track traffic of garages to help users understand when the best times to park are.                                                                                                                                                                                                                             2) Data collected to see hours when the garage gets filled during the day.   </t>
+  </si>
+  <si>
+    <t>1) A way to tell how many spots are left exactly so that you don’t see that its empty when in reality there is only one spot that could be taken right away.                                                                                                              2) Way to show that the garage is filled using a icon or something.</t>
+  </si>
+  <si>
+    <t>1) A way to reserve a parking spot.                                                                                                                                                                                                                                                                                                                                     2) A way to see spots for future times.</t>
   </si>
 </sst>
 </file>
@@ -540,23 +540,23 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -960,42 +960,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="54">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22.05" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="103.05" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
         <v>23</v>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1081,7 +1081,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1091,7 +1091,7 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13">
         <v>34</v>
@@ -1139,7 +1139,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="109.05" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1157,7 +1157,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="61.95" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13">
         <v>55</v>
@@ -1170,8 +1170,8 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:10" ht="181.2" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1184,20 +1184,20 @@
         <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="147.6" customHeight="1">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:10" ht="223.8" customHeight="1">
+      <c r="A13" s="21"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13">
         <v>89</v>
@@ -1206,30 +1206,30 @@
         <v>55</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenVR\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E50E0-797B-4639-91C6-5BB4B0D323A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD611E99-C948-437F-A631-EDB60B5080FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="1457" windowWidth="27635" windowHeight="15034" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -231,6 +231,38 @@
   </si>
   <si>
     <t>1) A way to reserve a parking spot.                                                                                                                                                                                                                                                                                                                                     2) A way to see spots for future times.</t>
+  </si>
+  <si>
+    <t>Clean looking, square polygons.
+Way to tell garages apart from lots.</t>
+  </si>
+  <si>
+    <t>Every garage/lot accounted for with its color reflecting which permit is allowed to park there.
+Accurate shapes and sizes.</t>
+  </si>
+  <si>
+    <t>Capacity based on type of vehicle visible when user clicks on the polygon.
+Option to hide certain classes of lots.</t>
+  </si>
+  <si>
+    <t>Way to concatenate paths. 
+Easily-visible and smooth path between points.</t>
+  </si>
+  <si>
+    <t>Way to select one point and one polygon and get directions between them. 
+Way to generate path based on user input or selection.</t>
+  </si>
+  <si>
+    <t>Feature to automatically select a path based on time/traffic, not just shortest distance. 
+Ability to add path between apartment complex or unlisted parking space and campus.</t>
+  </si>
+  <si>
+    <t>Real-time capacity or estimate.
+Way for users to move around polygons or add custom polygons.</t>
+  </si>
+  <si>
+    <t>Default Google pathfinding.
+Invalid or out-of-date paths.</t>
   </si>
 </sst>
 </file>
@@ -540,6 +572,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,60 +974,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4609375" customWidth="1"/>
+    <col min="3" max="3" width="16.69140625" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" customWidth="1"/>
+    <col min="6" max="6" width="15.07421875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.765625" customWidth="1"/>
+    <col min="10" max="10" width="49.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="54">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="55.3">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.05" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.1" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.100000000000001" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1018,8 +1050,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="103.05" customHeight="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" ht="103.1" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1045,7 +1077,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
         <v>23</v>
@@ -1067,7 +1099,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1081,7 +1113,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1091,7 +1123,7 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1117,7 +1149,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13">
         <v>34</v>
@@ -1138,8 +1170,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="109.05" customHeight="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:10" ht="131.15">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1151,13 +1183,21 @@
       <c r="D10" s="11">
         <v>34</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="61.95" customHeight="1">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:10" ht="160.30000000000001">
+      <c r="A11" s="16"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13">
         <v>55</v>
@@ -1165,13 +1205,21 @@
       <c r="D11" s="13">
         <v>55</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="181.2" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1196,8 +1244,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="223.8" customHeight="1">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:10" ht="223.85" customHeight="1">
+      <c r="A13" s="16"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13">
         <v>89</v>
@@ -1220,16 +1268,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenVR\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD611E99-C948-437F-A631-EDB60B5080FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28B578-0C21-694C-908B-4FD0A27F327C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="1457" windowWidth="27635" windowHeight="15034" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,9 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -572,23 +569,23 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,59 +972,59 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4609375" customWidth="1"/>
-    <col min="3" max="3" width="16.69140625" customWidth="1"/>
-    <col min="4" max="4" width="13.4609375" customWidth="1"/>
-    <col min="5" max="5" width="15.4609375" customWidth="1"/>
-    <col min="6" max="6" width="15.07421875" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.765625" customWidth="1"/>
-    <col min="10" max="10" width="49.3046875" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="55.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.1" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.100000000000001" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1050,8 +1047,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="103.1" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" ht="103" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1063,43 +1060,45 @@
       <c r="D4" s="11">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:10" ht="128" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1107,23 +1106,25 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+    <row r="7" spans="1:10" ht="181" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1135,43 +1136,45 @@
       <c r="D8" s="11">
         <v>34</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
+    <row r="9" spans="1:10" ht="200" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12">
         <v>34</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>34</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="131.15">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:10" ht="144">
+      <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1183,43 +1186,45 @@
       <c r="D10" s="11">
         <v>34</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="160.30000000000001">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+    <row r="11" spans="1:10" ht="176">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
         <v>55</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>55</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="181.2" customHeight="1">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:10" ht="181.25" customHeight="1">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1231,53 +1236,55 @@
       <c r="D12" s="11">
         <v>13</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="223.85" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
+    <row r="13" spans="1:10" ht="223.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="12">
         <v>89</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Documents/GitHub/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28B578-0C21-694C-908B-4FD0A27F327C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBF309-2E4F-AF4A-9F3A-0953ED6195A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2100" windowWidth="23040" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -121,9 +121,6 @@
     <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
   </si>
   <si>
-    <t>Not Here 10-10-2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I as a simplistic style user, want to utilize some buttons on the webpage instead of text input to aid in the simplicity of the webpage.
 As a Student, I would like to know better paths to campus from these parking lots to make commuting between them easier.</t>
   </si>
@@ -263,6 +260,41 @@
   <si>
     <t>Default Google pathfinding.
 Invalid or out-of-date paths.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Information of all  parking spots.
+2) Frequent updates of the parking lots. </t>
+  </si>
+  <si>
+    <t>1) Prices for parking spots that require payment
+ 2) A way to alert you when your time is almost up if you park in a spot that requires payment by the hour.</t>
+  </si>
+  <si>
+    <t>1)  An alert that notifies you when a parking location is available
+ 2)  Payment option for paid parking</t>
+  </si>
+  <si>
+    <t>1)   If you choose to park for free,  a way to filter which parking spots you can park based off your parking permit.
+ 2)  Recommendation pop ups for closest free parking lot.</t>
+  </si>
+  <si>
+    <t>1)  Google maps directions api
+2) Use GPS to gather information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a student, I would like to have a filter for free parking, paid parking, and parking with restrictions.
+As user, I would like to have my vehicle location saved and have the option to have navigation to my vehicle. </t>
+  </si>
+  <si>
+    <t>1)  Add pictures of your parking location
+2) Be able to manually mark your vehicle location</t>
+  </si>
+  <si>
+    <t>1) A way for the user to change/customize the interface
+2)  The ability to share you vehicle location with others</t>
   </si>
 </sst>
 </file>
@@ -569,6 +601,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F5:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -989,42 +1021,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1048,8 +1080,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="103" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>22</v>
+      <c r="A4" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1061,71 +1093,95 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="183" customHeight="1">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="128" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>18</v>
+    <row r="6" spans="1:10" ht="209" thickBot="1">
+      <c r="A6" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="181" customHeight="1">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
+      <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="189" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>19</v>
+    <row r="8" spans="1:10" ht="189" customHeight="1" thickBot="1">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1137,20 +1193,20 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="200" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1161,21 +1217,21 @@
         <v>34</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144">
-      <c r="A10" s="20" t="s">
-        <v>21</v>
+      <c r="A10" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>14</v>
@@ -1187,20 +1243,20 @@
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="176">
-      <c r="A11" s="20"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1211,21 +1267,21 @@
         <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="181.25" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>20</v>
+      <c r="A12" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
@@ -1237,20 +1293,20 @@
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1261,30 +1317,30 @@
         <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_9/User Story Specs.xlsx
+++ b/Assignments/Assignment_9/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Documents/GitHub/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBF309-2E4F-AF4A-9F3A-0953ED6195A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD8694-3061-FF46-9E69-8869FF76CB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2100" windowWidth="23040" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="460" windowWidth="23040" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -134,13 +134,6 @@
 As a person looking for functionality, I would like to be able to get directions from one point to another so the website is useful.</t>
   </si>
   <si>
-    <t>As a user, I would like to have the ability to identify my best parking option by color. 
-As a meat-popsicle, I would like the ability to use my multipass to access red-zone parking.</t>
-  </si>
-  <si>
-    <t>N-A</t>
-  </si>
-  <si>
     <t>A well Thught out Color Scheme to draw the user's eye to the correct location on the map
 Clickable map icons that will in turn create a submenu of options per the users choice.</t>
   </si>
@@ -295,6 +288,10 @@
   <si>
     <t>1) A way for the user to change/customize the interface
 2)  The ability to share you vehicle location with others</t>
+  </si>
+  <si>
+    <t>As a user, I would like to have the ability to identify my best parking option by color. 
+As a user, I would like the ability to select a location on the map to park then have the website show me a list of times that the area I selected is likely to be available</t>
   </si>
 </sst>
 </file>
@@ -601,23 +598,23 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1021,42 +1018,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1080,8 +1077,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="103" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>21</v>
+      <c r="A4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1093,94 +1090,94 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
+      <c r="C5" s="12">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12">
+        <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="209" thickBot="1">
-      <c r="A6" s="15" t="s">
-        <v>61</v>
+      <c r="A6" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="189" customHeight="1" thickBot="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1193,20 +1190,20 @@
         <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="200" customHeight="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1217,20 +1214,20 @@
         <v>34</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1243,20 +1240,20 @@
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="176">
-      <c r="A11" s="15"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1267,20 +1264,20 @@
         <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="181.25" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1293,20 +1290,20 @@
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1317,30 +1314,30 @@
         <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
